--- a/无锡捷普-蓝精灵（2、9、10、11、14、15、16、17、18、19）/产线语音对照表.xlsx
+++ b/无锡捷普-蓝精灵（2、9、10、11、14、15、16、17、18、19）/产线语音对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17508" windowHeight="8880"/>
+    <workbookView windowWidth="12555" windowHeight="6427"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>线别</t>
   </si>
@@ -63,19 +63,10 @@
     <t>blkc03l1</t>
   </si>
   <si>
-    <t>blkc07l1</t>
-  </si>
-  <si>
     <t>blkc03l2</t>
   </si>
   <si>
-    <t>blkc07l2</t>
-  </si>
-  <si>
     <t>blkc03l3</t>
-  </si>
-  <si>
-    <t>blkc07l3</t>
   </si>
   <si>
     <t>blkc04l1</t>
@@ -92,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -121,17 +112,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,6 +128,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -151,84 +211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,9 +227,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,13 +243,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,7 +265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="2" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,217 +277,223 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,6 +651,15 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +669,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,17 +703,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,30 +735,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -763,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,137 +772,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,25 +915,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,22 +942,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1329,16 +1323,16 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="20.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="0.175925925925926" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.7777777777778" style="2" customWidth="1"/>
-    <col min="6" max="6" width="0.175925925925926" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.7777777777778" style="2" customWidth="1"/>
+    <col min="1" max="2" width="20.7787610619469" style="2" customWidth="1"/>
+    <col min="3" max="3" width="0.176991150442478" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7787610619469" style="2" customWidth="1"/>
+    <col min="6" max="6" width="0.176991150442478" style="2" customWidth="1"/>
+    <col min="7" max="8" width="20.7787610619469" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1349,249 +1343,237 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="8" t="s">
+    <row r="2" ht="20" customHeight="1" spans="1:8">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>51</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2">
         <v>54</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="H2" s="11"/>
+      <c r="F2" s="8"/>
+      <c r="H2" s="10"/>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="8" t="s">
+    <row r="3" ht="20" customHeight="1" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>52</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>55</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="H3" s="11"/>
+      <c r="F3" s="8"/>
+      <c r="H3" s="10"/>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="8" t="s">
+    <row r="4" ht="20" customHeight="1" spans="1:8">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>53</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>56</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="H4" s="11"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" ht="1" customHeight="1" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="12"/>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="14" t="s">
+    <row r="6" ht="20" customHeight="1" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>57</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2">
         <v>60</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="H6" s="11"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="10"/>
     </row>
-    <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="14" t="s">
+    <row r="7" ht="20" customHeight="1" spans="1:8">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>58</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2">
         <v>61</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="H7" s="11"/>
+      <c r="F7" s="8"/>
+      <c r="H7" s="10"/>
     </row>
-    <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="14" t="s">
+    <row r="8" ht="20" customHeight="1" spans="1:8">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>59</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>62</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="H8" s="11"/>
+      <c r="F8" s="8"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" ht="1" customHeight="1" spans="1:8">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="12"/>
     </row>
-    <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="16" t="s">
+    <row r="10" ht="20" customHeight="1" spans="1:8">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>63</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="8"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:8">
+      <c r="A11" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="E10" s="2">
-        <v>66</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>64</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2">
-        <v>67</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="H11" s="11"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="8"/>
+      <c r="H11" s="10"/>
     </row>
-    <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="16" t="s">
-        <v>18</v>
+    <row r="12" ht="20" customHeight="1" spans="1:8">
+      <c r="A12" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>65</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2">
-        <v>68</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="H12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="8"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" ht="1" customHeight="1" spans="1:8">
-      <c r="A13" s="12"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="12"/>
     </row>
-    <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="18" t="s">
-        <v>20</v>
+    <row r="14" ht="20" customHeight="1" spans="1:8">
+      <c r="A14" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>69</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="H14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="H14" s="10"/>
     </row>
-    <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="18" t="s">
-        <v>21</v>
+    <row r="15" ht="20" customHeight="1" spans="1:8">
+      <c r="A15" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>70</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="H15" s="10"/>
     </row>
-    <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="20">
+    <row r="16" ht="20" customHeight="1" spans="1:8">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="19">
         <v>71</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" ht="1" customHeight="1" spans="1:8">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1609,7 +1591,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1626,7 +1608,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
